--- a/Ohio_Vaccincation_URLs.xlsx
+++ b/Ohio_Vaccincation_URLs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Data\02 - Projects\02 - LWA\01 - Covid 19\05 - Ohio Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357729D-225D-4857-BA26-442D1AFCC5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>URL</t>
   </si>
@@ -74,9 +75,6 @@
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/b8422ee3579d2fc7744e4caf22c5fe456a274af2/incidents.json</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f572912a4f5ab611928e37836fef3c7fff775ab6/incidents.json</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c0c2b2df24c987d05dc4bc08ca16c53dcd95b9df/incidents.json</t>
   </si>
   <si>
@@ -99,12 +97,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>https://github.com/simonw/cdc-vaccination-history/blob/f572912a4f5ab611928e37836fef3c7fff775ab6/incidents.json</t>
+  </si>
+  <si>
+    <t>https://github.com/simonw/cdc-vaccination-history/blob/29e4e636e32dde8bccfb7ce4f63a4cc5d9825603/incidents.json</t>
+  </si>
+  <si>
+    <t>https://github.com/simonw/cdc-vaccination-history/blob/4ea90d437fe37aade429c0d3550050c532d5f729/incidents.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,11 +150,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,68 +434,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44255</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44256</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44257</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44258</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44259</v>
       </c>
@@ -497,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44260</v>
       </c>
@@ -505,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44261</v>
       </c>
@@ -513,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44262</v>
       </c>
@@ -521,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44263</v>
       </c>
@@ -529,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44264</v>
       </c>
@@ -537,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44265</v>
       </c>
@@ -545,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44266</v>
       </c>
@@ -553,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44267</v>
       </c>
@@ -561,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44268</v>
       </c>
@@ -569,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44269</v>
       </c>
@@ -577,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44270</v>
       </c>
@@ -585,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44271</v>
       </c>
@@ -593,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44272</v>
       </c>
@@ -601,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44273</v>
       </c>
@@ -609,63 +615,75 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44274</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44275</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44276</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
-    <hyperlink ref="B18" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="B9" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="B7" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15" display="https://github.com/simonw/cdc-vaccination-history/blob/b8422ee3579d2fc7744e4caf22c5fe456a274af2/incidents.json"/>
-    <hyperlink ref="B24" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B6" r:id="rId19"/>
-    <hyperlink ref="B5" r:id="rId20"/>
-    <hyperlink ref="B4" r:id="rId21"/>
-    <hyperlink ref="B3" r:id="rId22"/>
-    <hyperlink ref="B2" r:id="rId23"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B21" r:id="rId15" display="https://github.com/simonw/cdc-vaccination-history/blob/b8422ee3579d2fc7744e4caf22c5fe456a274af2/incidents.json" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B3" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Ohio_Vaccincation_URLs.xlsx
+++ b/Ohio_Vaccincation_URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357729D-225D-4857-BA26-442D1AFCC5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3071A-A348-4CD6-8CA9-960A8AC9BD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>URL</t>
   </si>
@@ -99,13 +99,49 @@
     <t>date</t>
   </si>
   <si>
-    <t>https://github.com/simonw/cdc-vaccination-history/blob/f572912a4f5ab611928e37836fef3c7fff775ab6/incidents.json</t>
-  </si>
-  <si>
-    <t>https://github.com/simonw/cdc-vaccination-history/blob/29e4e636e32dde8bccfb7ce4f63a4cc5d9825603/incidents.json</t>
-  </si>
-  <si>
-    <t>https://github.com/simonw/cdc-vaccination-history/blob/4ea90d437fe37aade429c0d3550050c532d5f729/incidents.json</t>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f572912a4f5ab611928e37836fef3c7fff775ab6/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/31c91307b2438eca531a836aa3e6bd4e3efd129c/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/4ea90d437fe37aade429c0d3550050c532d5f729/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/266081e25c58d9110b33c9fa0bdeafb546dcadbb/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8e6ebfe0cf10d5baa7bd29257e51b905a760819a/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/01781c4f56c7a408cd6753e7bc082404c5d960ee/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/58815bc9990352b81277064b97ddc32f60eca836/incidents.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/eb0b1643db37830f1f216ca41abaffa9e7b77089/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/299aabaccc94b4728cf350df468ba65fa5fbbb87/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/776a1964a807016e46c5cde11cd707716bc4a5aa/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/bdbedcab55d3f575ad68553f347891229264c778/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f3fc91f1885a0d5fa415bcf4d6bc7a1c9b9b2f2f/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/13bf1552463c9afa51b12cab8aad6c3a36d416f0/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/0fc524b44b024cefc5d3ce9407cbe2027ae93e79/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f89e0c8166b25645f8e92ebc148f9cb9db119554/states.json</t>
   </si>
 </sst>
 </file>
@@ -435,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,6 +689,102 @@
       </c>
       <c r="B26" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Ohio_Vaccincation_URLs.xlsx
+++ b/Ohio_Vaccincation_URLs.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3071A-A348-4CD6-8CA9-960A8AC9BD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C55EB-8CFA-4958-84FA-76BD3BEC7C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>URL</t>
   </si>
@@ -142,6 +148,57 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f89e0c8166b25645f8e92ebc148f9cb9db119554/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/1ab5a678c34cce2fa4e095f158cc1b152bac64d0/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/7daa747efd2b02f3e1bd61c2d9844fe7761bb88d/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/59dc3c257afd9d129702f0fa3cac73945923eb75/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8f182bd89dfc7efac6033cdff502dead207a5c9a/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/2b88b4a7afeb95cc81c4e4bf834a3a8981c94285/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/b46a9e4137a23a86b08770d3c737ee9ae84a051a/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/4d055f8550e1c5635d7425632b7be582edee6377/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/06ed24aa6756de13a6d1d0c283469c9d5c0d25d1/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8482fd1f83a924b4da62b43afd96f1c7d3828ffe/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/ed6993ff4256dbe6b347dcd69c9151e2b60185fb/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/05a863ecc79a7568e2cae96170ba08ad957ba885/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8b5ae6c27bf498701eb3b33b217714f9f2f9d8c0/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/93a4e1f47993b9b81c1a5851dbc6839e3f4707f8/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c73948dd87ed84471e50eeb13e92efe255b943cf/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f194e99b69bbc39ae8387b236c9041aa442f6bb1/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/0ba1dd7c6c6eadf91f897c48286751b7b5f2b297/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c7e3d38d73e1819a278db0d363a17957127e0dc8/states.json</t>
   </si>
 </sst>
 </file>
@@ -471,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,6 +842,142 @@
       </c>
       <c r="B38" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Ohio_Vaccincation_URLs.xlsx
+++ b/Ohio_Vaccincation_URLs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C55EB-8CFA-4958-84FA-76BD3BEC7C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8964545D-29E1-4AE1-A4A6-FA0C0F766A45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>URL</t>
   </si>
@@ -199,6 +193,15 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c7e3d38d73e1819a278db0d363a17957127e0dc8/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/6be51bd4348df57c1533fd1a13d3e0fcdd0107c7/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c9a530dc6d085617a9ea6d6669b4f9ef8ba3fd50/states.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/518c8623cf6c257adbc938fe3ebcce965d2df854/states.json</t>
   </si>
 </sst>
 </file>
@@ -528,19 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="110.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -548,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44254</v>
       </c>
@@ -556,7 +559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44255</v>
       </c>
@@ -564,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44256</v>
       </c>
@@ -572,7 +575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44257</v>
       </c>
@@ -580,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44258</v>
       </c>
@@ -588,7 +591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44259</v>
       </c>
@@ -596,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44260</v>
       </c>
@@ -604,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44261</v>
       </c>
@@ -612,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44262</v>
       </c>
@@ -620,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44263</v>
       </c>
@@ -628,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44264</v>
       </c>
@@ -636,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44265</v>
       </c>
@@ -644,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44266</v>
       </c>
@@ -652,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44267</v>
       </c>
@@ -660,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44268</v>
       </c>
@@ -668,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44269</v>
       </c>
@@ -676,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44270</v>
       </c>
@@ -684,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44271</v>
       </c>
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44272</v>
       </c>
@@ -700,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44273</v>
       </c>
@@ -708,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44274</v>
       </c>
@@ -716,7 +719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44275</v>
       </c>
@@ -724,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44276</v>
       </c>
@@ -732,7 +735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44277</v>
       </c>
@@ -740,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44278</v>
       </c>
@@ -748,7 +751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44279</v>
       </c>
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44280</v>
       </c>
@@ -764,7 +767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44281</v>
       </c>
@@ -772,7 +775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44282</v>
       </c>
@@ -780,7 +783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44283</v>
       </c>
@@ -788,7 +791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44284</v>
       </c>
@@ -796,7 +799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44285</v>
       </c>
@@ -804,7 +807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44286</v>
       </c>
@@ -812,7 +815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44287</v>
       </c>
@@ -820,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44288</v>
       </c>
@@ -828,7 +831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44289</v>
       </c>
@@ -836,7 +839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44290</v>
       </c>
@@ -844,7 +847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44291</v>
       </c>
@@ -852,7 +855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44292</v>
       </c>
@@ -860,7 +863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44293</v>
       </c>
@@ -868,7 +871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44294</v>
       </c>
@@ -876,7 +879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44295</v>
       </c>
@@ -884,7 +887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44296</v>
       </c>
@@ -892,7 +895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44297</v>
       </c>
@@ -900,7 +903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44298</v>
       </c>
@@ -908,7 +911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44299</v>
       </c>
@@ -916,7 +919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44301</v>
       </c>
@@ -924,7 +927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44302</v>
       </c>
@@ -932,7 +935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44303</v>
       </c>
@@ -940,7 +943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44304</v>
       </c>
@@ -948,7 +951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44305</v>
       </c>
@@ -956,7 +959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44306</v>
       </c>
@@ -964,7 +967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44307</v>
       </c>
@@ -972,12 +975,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44308</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
